--- a/data/projections.xlsx
+++ b/data/projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution-my.sharepoint.com/personal/gnabors_brookings_edu/Documents/Documents/GitHub/fim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531CB9F-A2C7-C547-95E4-159BEEB576C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3531CB9F-A2C7-C547-95E4-159BEEB576C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3463B9C-BB3C-4E8A-891E-152A23D1E984}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1. Quarterly'!$A$5:$AZ$135</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'1. Quarterly'!$A:$D</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1142,6 +1155,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1152,10 +1169,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1518,19 +1531,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42825</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>243.83</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -1680,7 +1693,7 @@
         <v>244.065</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>245.36799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -1780,7 +1793,7 @@
         <v>247.273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -1830,7 +1843,7 @@
         <v>249.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>250.578</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -1930,7 +1943,7 @@
         <v>251.828</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -1980,7 +1993,7 @@
         <v>252.75899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>253.3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -2080,7 +2093,7 @@
         <v>255.2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>256.3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2180,7 +2193,7 @@
         <v>257.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -2230,7 +2243,7 @@
         <v>258.60000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -2280,7 +2293,7 @@
         <v>256.60000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>258.3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -2380,7 +2393,7 @@
         <v>260.59899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -2430,7 +2443,7 @@
         <v>261.77999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -2480,7 +2493,7 @@
         <v>263.077</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>264.58</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>265.661</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>267.07100000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -2680,7 +2693,7 @@
         <v>268.524</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>269.99900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>271.512</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45016</v>
       </c>
@@ -2830,7 +2843,7 @@
         <v>273.03699999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45107</v>
       </c>
@@ -2880,7 +2893,7 @@
         <v>274.58699999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45199</v>
       </c>
@@ -2930,7 +2943,7 @@
         <v>276.15100000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45291</v>
       </c>
@@ -2980,7 +2993,7 @@
         <v>277.72500000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45382</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>279.31700000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45473</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>280.93099999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45565</v>
       </c>
@@ -3130,7 +3143,7 @@
         <v>282.57100000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>284.23099999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45747</v>
       </c>
@@ -3230,7 +3243,7 @@
         <v>285.90300000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45838</v>
       </c>
@@ -3280,7 +3293,7 @@
         <v>287.589</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45930</v>
       </c>
@@ -3330,7 +3343,7 @@
         <v>289.291</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>46022</v>
       </c>
@@ -3380,7 +3393,7 @@
         <v>291.00799999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>46112</v>
       </c>
@@ -3430,7 +3443,7 @@
         <v>292.74700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>46203</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>294.50099999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>46295</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>296.27</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>46387</v>
       </c>
@@ -3580,7 +3593,7 @@
         <v>298.05500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>46477</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>299.85899999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>46568</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>301.67599999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>46660</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>46752</v>
       </c>
@@ -3780,7 +3793,7 @@
         <v>305.36</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>46843</v>
       </c>
@@ -3830,7 +3843,7 @@
         <v>307.21699999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46934</v>
       </c>
@@ -3880,7 +3893,7 @@
         <v>309.08699999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47026</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>310.971</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47118</v>
       </c>
@@ -3980,7 +3993,7 @@
         <v>312.86900000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>47208</v>
       </c>
@@ -4030,7 +4043,7 @@
         <v>314.762</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>47299</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>316.654</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>47391</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>318.54700000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>47483</v>
       </c>
@@ -4180,7 +4193,7 @@
         <v>320.44</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>47573</v>
       </c>
@@ -4230,7 +4243,7 @@
         <v>322.33199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47664</v>
       </c>
@@ -4280,7 +4293,7 @@
         <v>324.226</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>47756</v>
       </c>
@@ -4330,7 +4343,7 @@
         <v>326.12200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>47848</v>
       </c>
@@ -4380,7 +4393,7 @@
         <v>328.017</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>47938</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>329.91500000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>48029</v>
       </c>
@@ -4480,7 +4493,7 @@
         <v>331.815</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>48121</v>
       </c>
@@ -4530,7 +4543,7 @@
         <v>333.71899999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>48213</v>
       </c>
@@ -4589,13 +4602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -4624,438 +4637,438 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="26">
         <v>2060</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="26">
         <v>1582</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>133</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="26">
         <v>407</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <v>1269</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="26">
         <v>702.28</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="26">
         <v>374.68</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="26">
         <v>31.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="26">
         <v>2154</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="26">
         <v>1610</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="26">
         <v>149</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <v>184</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="26">
         <v>1329</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="26">
         <v>704</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="26">
         <v>389</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="26">
         <v>2286.6971250000001</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>1652.8922560000001</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="26">
         <v>173.3855016</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="26">
         <v>166.2805401</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="26">
         <v>1395.0821430000001</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="26">
         <v>775.40599999999995</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="26">
         <v>409.42099999999999</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="26">
         <v>27.626999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="26">
         <v>3320.7721320000001</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1608.662</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <v>289.49400000000003</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <v>211.845</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="27">
         <v>1309.954</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="27">
         <v>916.94899999999996</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <v>458.46899999999999</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="27">
         <v>473.16500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="26">
         <v>2675.6800560000001</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>1698.961</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>317.62599999999998</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>164.04599999999999</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>1325.337</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="27">
         <v>830.23699999999997</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>507.26100000000002</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="27">
         <v>242.08699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="26">
         <v>2725.1688960000001</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="27">
         <v>2040.5219999999999</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="27">
         <v>350.88200000000001</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <v>251.98500000000001</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="27">
         <v>1351.277</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="27">
         <v>942.86400000000003</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="27">
         <v>514.14599999999996</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="27">
         <v>40.164000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="26">
         <v>2789.7678000000001</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <v>2084.1019999999999</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="27">
         <v>361.96100000000001</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <v>303.99599999999998</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="27">
         <v>1452.09</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="27">
         <v>1017.717</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <v>491.86900000000003</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="27">
         <v>37.088999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2024</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="26">
         <v>2862.2467660000002</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>2138.5259999999998</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="27">
         <v>378.53399999999999</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>328.43299999999999</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="27">
         <v>1506.7819999999999</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="27">
         <v>1047.1569999999999</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="27">
         <v>503.505</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="27">
         <v>36.167000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="26">
         <v>3076.7846719999998</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>2227.5610000000001</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <v>365.35899999999998</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>355.43400000000003</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <v>1558.3019999999999</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>1171.548</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>533.43499999999995</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="27">
         <v>34.216999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2026</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="26">
         <v>3236.1370160000001</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="27">
         <v>2479.105</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="27">
         <v>353.93799999999999</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <v>365.29700000000003</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <v>1618.9469999999999</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="27">
         <v>1256.192</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="27">
         <v>563.24099999999999</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="27">
         <v>33.183999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2027</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="26">
         <v>3385.882263</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="27">
         <v>2697.9229999999998</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="27">
         <v>365.00299999999999</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <v>360.97699999999998</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="27">
         <v>1672.973</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="27">
         <v>1348.1610000000001</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="27">
         <v>597.41200000000003</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="27">
         <v>33.901000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2028</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="26">
         <v>3654.9385870000001</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="27">
         <v>2782.221</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="27">
         <v>362.74099999999999</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <v>368.625</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="27">
         <v>1729.1780000000001</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="27">
         <v>1516.3989999999999</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="27">
         <v>631.86</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="27">
         <v>35.832000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2029</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="26">
         <v>3651.8353670000001</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="27">
         <v>2882.0140000000001</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="27">
         <v>359.91500000000002</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <v>377.49</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="27">
         <v>1788.18</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="27">
         <v>1475.1320000000001</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <v>667.45500000000004</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="27">
         <v>37.915999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2030</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="26">
         <v>3932.6238069999999</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="27">
         <v>2985.3470000000002</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="27">
         <v>357.32900000000001</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="27">
         <v>385.48599999999999</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="27">
         <v>1848.9970000000001</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="27">
         <v>1642.68</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="27">
         <v>705.01099999999997</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="27">
         <v>40.545000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2031</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="26">
         <v>3932.6238069999999</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="27">
         <v>3096.473</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="27">
         <v>367.358</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
         <v>392.95400000000001</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="27">
         <v>1914.1849999999999</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>1781.768</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="27">
         <v>744.03499999999997</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="27">
         <v>45.503</v>
       </c>
     </row>
@@ -5075,7 +5088,7 @@
       <selection pane="bottomRight" activeCell="T22" sqref="T22:BL22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="51.83203125" style="4" customWidth="1"/>
@@ -5088,33 +5101,33 @@
     <col min="61" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5168,7 +5181,7 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BA6" s="24"/>
       <c r="BB6" s="24"/>
       <c r="BC6" s="24"/>
@@ -5178,7 +5191,7 @@
       <c r="BK6" s="24"/>
       <c r="BL6" s="24"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5366,7 +5379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>93</v>
       </c>
@@ -5515,7 +5528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>92</v>
       </c>
@@ -5703,7 +5716,7 @@
         <v>33695.9</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>91</v>
       </c>
@@ -5891,7 +5904,7 @@
         <v>23545.3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>90</v>
@@ -6080,7 +6093,7 @@
         <v>33795</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>89</v>
@@ -6269,7 +6282,7 @@
         <v>23615.3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
@@ -6457,7 +6470,7 @@
         <v>18628.5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
@@ -6642,7 +6655,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
@@ -6689,7 +6702,7 @@
       <c r="BK15" s="18"/>
       <c r="BL15" s="18"/>
     </row>
-    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
@@ -6874,7 +6887,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>86</v>
@@ -7063,7 +7076,7 @@
         <v>139.059</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="D18" s="4" t="s">
         <v>20</v>
@@ -7249,7 +7262,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
@@ -7437,7 +7450,7 @@
         <v>141.75399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
@@ -7622,7 +7635,7 @@
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -7810,7 +7823,7 @@
         <v>335.62799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
@@ -7995,7 +8008,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>83</v>
       </c>
@@ -8183,7 +8196,7 @@
         <v>346.53300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
@@ -8368,7 +8381,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>81</v>
       </c>
@@ -8556,7 +8569,7 @@
         <v>182.87299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
@@ -8741,7 +8754,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>79</v>
       </c>
@@ -8929,7 +8942,7 @@
         <v>143.11099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -9114,7 +9127,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
@@ -9302,7 +9315,7 @@
         <v>198.76</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
@@ -9487,7 +9500,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>76</v>
       </c>
@@ -9675,7 +9688,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
@@ -9863,7 +9876,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>73</v>
       </c>
@@ -10051,7 +10064,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
@@ -10239,7 +10252,7 @@
         <v>440.10700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="4" t="s">
         <v>69</v>
@@ -10428,7 +10441,7 @@
         <v>172.202</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -10490,7 +10503,7 @@
       <c r="BK36" s="14"/>
       <c r="BL36" s="14"/>
     </row>
-    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>67</v>
       </c>
@@ -10555,7 +10568,7 @@
       <c r="BK37" s="14"/>
       <c r="BL37" s="14"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
@@ -10743,7 +10756,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>65</v>
       </c>
@@ -10931,7 +10944,7 @@
         <v>169.917</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4" t="s">
         <v>20</v>
       </c>
@@ -11116,7 +11129,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>64</v>
       </c>
@@ -11304,7 +11317,7 @@
         <v>60.713000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>63</v>
       </c>
@@ -11492,7 +11505,7 @@
         <v>162.536</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
@@ -11677,7 +11690,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>62</v>
       </c>
@@ -11865,7 +11878,7 @@
         <v>158.464</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
@@ -12050,7 +12063,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
@@ -12238,7 +12251,7 @@
         <v>133.11099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
@@ -12423,7 +12436,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>60</v>
       </c>
@@ -12611,7 +12624,7 @@
         <v>115.813</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
@@ -12796,7 +12809,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -12858,7 +12871,7 @@
       <c r="BK50" s="14"/>
       <c r="BL50" s="14"/>
     </row>
-    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>58</v>
       </c>
@@ -12923,7 +12936,7 @@
       <c r="BK51" s="14"/>
       <c r="BL51" s="14"/>
     </row>
-    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>57</v>
       </c>
@@ -13111,7 +13124,7 @@
         <v>279.86799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="4" t="s">
         <v>20</v>
       </c>
@@ -13296,7 +13309,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
@@ -13484,7 +13497,7 @@
         <v>135.44399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -13546,7 +13559,7 @@
       <c r="BK55" s="14"/>
       <c r="BL55" s="14"/>
     </row>
-    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>54</v>
       </c>
@@ -13611,7 +13624,7 @@
       <c r="BK56" s="14"/>
       <c r="BL56" s="14"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>53</v>
       </c>
@@ -13799,7 +13812,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>52</v>
       </c>
@@ -13987,7 +14000,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>51</v>
       </c>
@@ -14175,7 +14188,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -14237,7 +14250,7 @@
       <c r="BK60" s="14"/>
       <c r="BL60" s="14"/>
     </row>
-    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>49</v>
       </c>
@@ -14302,7 +14315,7 @@
       <c r="BK61" s="14"/>
       <c r="BL61" s="14"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>48</v>
       </c>
@@ -14490,7 +14503,7 @@
         <v>30495.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
         <v>37</v>
       </c>
@@ -14675,7 +14688,7 @@
         <v>90.501000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>47</v>
       </c>
@@ -14863,7 +14876,7 @@
         <v>18106.099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
         <v>37</v>
       </c>
@@ -15048,7 +15061,7 @@
         <v>53.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>46</v>
       </c>
@@ -15236,7 +15249,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
         <v>37</v>
       </c>
@@ -15421,7 +15434,7 @@
         <v>43.378999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>45</v>
       </c>
@@ -15609,7 +15622,7 @@
         <v>8833.5</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69" s="4" t="s">
         <v>37</v>
       </c>
@@ -15794,7 +15807,7 @@
         <v>26.215</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="4" t="s">
         <v>44</v>
       </c>
@@ -15982,7 +15995,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="4" t="s">
         <v>37</v>
       </c>
@@ -16167,7 +16180,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="4" t="s">
         <v>43</v>
       </c>
@@ -16355,7 +16368,7 @@
         <v>2564.4</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="4" t="s">
         <v>37</v>
       </c>
@@ -16540,7 +16553,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
         <v>42</v>
       </c>
@@ -16728,7 +16741,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="4" t="s">
         <v>37</v>
       </c>
@@ -16913,7 +16926,7 @@
         <v>3.6669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="4" t="s">
         <v>41</v>
       </c>
@@ -17101,7 +17114,7 @@
         <v>2897.1</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="4" t="s">
         <v>37</v>
       </c>
@@ -17286,7 +17299,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="4" t="s">
         <v>40</v>
       </c>
@@ -17474,7 +17487,7 @@
         <v>2060.1999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="4" t="s">
         <v>37</v>
       </c>
@@ -17659,7 +17672,7 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>39</v>
       </c>
@@ -17847,7 +17860,7 @@
         <v>3450.2</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D81" s="4" t="s">
         <v>37</v>
       </c>
@@ -18032,7 +18045,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>38</v>
       </c>
@@ -18220,7 +18233,7 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" s="4" t="s">
         <v>37</v>
       </c>
@@ -18405,7 +18418,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -18467,7 +18480,7 @@
       <c r="BK84" s="14"/>
       <c r="BL84" s="14"/>
     </row>
-    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>36</v>
       </c>
@@ -18532,7 +18545,7 @@
       <c r="BK85" s="14"/>
       <c r="BL85" s="14"/>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>32</v>
       </c>
@@ -18720,7 +18733,7 @@
         <v>23476.1</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="4" t="s">
         <v>20</v>
       </c>
@@ -18905,7 +18918,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>31</v>
       </c>
@@ -19093,7 +19106,7 @@
         <v>5649.8</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D89" s="4" t="s">
         <v>20</v>
       </c>
@@ -19278,7 +19291,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
         <v>30</v>
       </c>
@@ -19466,7 +19479,7 @@
         <v>4330.8</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="4" t="s">
         <v>20</v>
       </c>
@@ -19651,7 +19664,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="16" t="s">
         <v>29</v>
       </c>
@@ -19839,7 +19852,7 @@
         <v>1265.2</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="4" t="s">
         <v>20</v>
       </c>
@@ -20024,7 +20037,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
         <v>28</v>
       </c>
@@ -20212,7 +20225,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>27</v>
       </c>
@@ -20400,7 +20413,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="4" t="s">
         <v>20</v>
       </c>
@@ -20585,7 +20598,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
         <v>26</v>
       </c>
@@ -20773,7 +20786,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" s="4" t="s">
         <v>20</v>
       </c>
@@ -20958,7 +20971,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
         <v>25</v>
       </c>
@@ -21146,7 +21159,7 @@
         <v>3621.8</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D100" s="4" t="s">
         <v>20</v>
       </c>
@@ -21331,7 +21344,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>24</v>
       </c>
@@ -21519,7 +21532,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
         <v>23</v>
       </c>
@@ -21707,7 +21720,7 @@
         <v>3538.4</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" s="4" t="s">
         <v>20</v>
       </c>
@@ -21892,7 +21905,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>22</v>
       </c>
@@ -22080,7 +22093,7 @@
         <v>4515.3999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" s="4" t="s">
         <v>20</v>
       </c>
@@ -22265,7 +22278,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>35</v>
       </c>
@@ -22453,7 +22466,7 @@
         <v>-755.9</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -22515,7 +22528,7 @@
       <c r="BK107" s="14"/>
       <c r="BL107" s="14"/>
     </row>
-    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>33</v>
       </c>
@@ -22580,7 +22593,7 @@
       <c r="BK108" s="14"/>
       <c r="BL108" s="14"/>
     </row>
-    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>32</v>
       </c>
@@ -22768,7 +22781,7 @@
         <v>16882.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D110" s="4" t="s">
         <v>20</v>
       </c>
@@ -22953,7 +22966,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>31</v>
       </c>
@@ -23141,7 +23154,7 @@
         <v>4378.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D112" s="4" t="s">
         <v>20</v>
       </c>
@@ -23326,7 +23339,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="4" t="s">
         <v>30</v>
       </c>
@@ -23514,7 +23527,7 @@
         <v>3723.6</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="4" t="s">
         <v>20</v>
       </c>
@@ -23699,7 +23712,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="4" t="s">
         <v>29</v>
       </c>
@@ -23887,7 +23900,7 @@
         <v>662.3</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D116" s="4" t="s">
         <v>20</v>
       </c>
@@ -24072,7 +24085,7 @@
         <v>-1.149</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="4" t="s">
         <v>28</v>
       </c>
@@ -24260,7 +24273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>27</v>
       </c>
@@ -24448,7 +24461,7 @@
         <v>3555.2</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
         <v>26</v>
       </c>
@@ -24636,7 +24649,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="4" t="s">
         <v>25</v>
       </c>
@@ -24824,7 +24837,7 @@
         <v>2186.3000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" s="4" t="s">
         <v>20</v>
       </c>
@@ -25009,7 +25022,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>24</v>
       </c>
@@ -25197,7 +25210,7 @@
         <v>-1336.4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="4" t="s">
         <v>23</v>
       </c>
@@ -25385,7 +25398,7 @@
         <v>3081.2</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D124" s="4" t="s">
         <v>20</v>
       </c>
@@ -25570,7 +25583,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
         <v>22</v>
       </c>
@@ -25758,7 +25771,7 @@
         <v>4417.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -25946,23 +25959,23 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="29" t="s">
+    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
     </row>
-    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>17</v>
       </c>
@@ -25980,7 +25993,7 @@
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
     </row>
-    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C133" s="8"/>
       <c r="E133" s="7"/>
       <c r="G133" s="7"/>
@@ -25995,12 +26008,12 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
